--- a/img/calendar.jpg.xlsx
+++ b/img/calendar.jpg.xlsx
@@ -200,12 +200,6 @@
       <name val="Lancelot"/>
     </font>
     <font>
-      <b/>
-      <sz val="28"/>
-      <color theme="0"/>
-      <name val="Lancelot"/>
-    </font>
-    <font>
       <sz val="36"/>
       <color theme="4" tint="-0.24994659260841701"/>
       <name val="Lancelot"/>
@@ -230,8 +224,14 @@
       <color theme="1"/>
       <name val="Lancelot"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Lancelot"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +269,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,7 +428,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="9">
       <alignment horizontal="center"/>
@@ -448,7 +460,25 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="8" applyFont="1" applyBorder="1">
@@ -460,35 +490,20 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="8" applyNumberFormat="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="8">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="9" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="9" applyFont="1" applyFill="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -882,7 +897,7 @@
   <dimension ref="A1:J168"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -895,292 +910,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="54" customHeight="1">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19">
+      <c r="A1" s="13"/>
+      <c r="B1" s="28">
         <f ca="1">YEAR(TODAY())</f>
         <v>2017</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="str">
+      <c r="C2" s="27" t="str">
         <f ca="1">UPPER(TEXT(C3,"dddd"))</f>
         <v>TUESDAY</v>
       </c>
-      <c r="D2" s="23" t="str">
+      <c r="D2" s="17" t="str">
         <f t="shared" ref="D2:H2" ca="1" si="0">UPPER(TEXT(D3,"dddd"))</f>
         <v>WEDNESDAY</v>
       </c>
-      <c r="E2" s="24" t="str">
+      <c r="E2" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>THURSDAY</v>
       </c>
-      <c r="F2" s="23" t="str">
+      <c r="F2" s="17" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>FRIDAY</v>
       </c>
-      <c r="G2" s="24" t="str">
+      <c r="G2" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SATURDAY</v>
       </c>
-      <c r="H2" s="23" t="str">
+      <c r="H2" s="17" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>SUNDAY</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="18">
         <f t="array" aca="1" ref="B3:H3" ca="1">Days+1+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42793</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="18">
         <f ca="1"/>
         <v>42794</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="18">
         <f ca="1"/>
         <v>42795</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="18">
         <f ca="1"/>
         <v>42796</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="18">
         <f ca="1"/>
         <v>42797</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="18">
         <f ca="1"/>
         <v>42798</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="19">
         <f ca="1"/>
         <v>42799</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="56.25" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="18">
         <f t="array" aca="1" ref="B5:H5" ca="1">Days+8+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42800</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="18">
         <f ca="1"/>
         <v>42801</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="18">
         <f ca="1"/>
         <v>42802</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="18">
         <f ca="1"/>
         <v>42803</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="18">
         <f ca="1"/>
         <v>42804</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="18">
         <f ca="1"/>
         <v>42805</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="19">
         <f ca="1"/>
         <v>42806</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="56.25" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18">
         <f t="array" aca="1" ref="B7:H7" ca="1">Days+15+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42807</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="18">
         <f ca="1"/>
         <v>42808</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="18">
         <f ca="1"/>
         <v>42809</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="18">
         <f ca="1"/>
         <v>42810</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="18">
         <f ca="1"/>
         <v>42811</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="18">
         <f ca="1"/>
         <v>42812</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="19">
         <f ca="1"/>
         <v>42813</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="56.25" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A9" s="21"/>
-      <c r="B9" s="25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="18">
         <f t="array" aca="1" ref="B9:H9" ca="1">Days+22+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42814</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="18">
         <f ca="1"/>
         <v>42815</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="18">
         <f ca="1"/>
         <v>42816</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="18">
         <f ca="1"/>
         <v>42817</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="18">
         <f ca="1"/>
         <v>42818</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="18">
         <f ca="1"/>
         <v>42819</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="19">
         <f ca="1"/>
         <v>42820</v>
       </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="56.25" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="18">
         <f t="array" aca="1" ref="B11:H11" ca="1">Days+29+DATE(Calendar1Year,Calendar1MonthOption,1)-WEEKDAY(DATE(Calendar1Year,Calendar1MonthOption,1),WeekdayOption)</f>
         <v>42821</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="18">
         <f ca="1"/>
         <v>42822</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="18">
         <f ca="1"/>
         <v>42823</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="18">
         <f ca="1"/>
         <v>42824</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="18">
         <f ca="1"/>
         <v>42825</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="18">
         <f ca="1"/>
         <v>42826</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="19">
         <f ca="1"/>
         <v>42827</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="57" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
       <c r="B13" s="4">
@@ -1191,22 +1206,22 @@
         <f ca="1"/>
         <v>42829</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:10" ht="63.75" customHeight="1">
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" spans="1:10" ht="54" customHeight="1">
       <c r="A15" s="2"/>
@@ -1459,22 +1474,22 @@
         <f ca="1"/>
         <v>42857</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" ht="63.75" customHeight="1">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="54" customHeight="1">
       <c r="A29" s="2"/>
@@ -1727,22 +1742,22 @@
         <f ca="1"/>
         <v>42892</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:8" ht="63.75" customHeight="1">
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
     </row>
     <row r="43" spans="1:8" ht="54" customHeight="1">
       <c r="A43" s="2"/>
@@ -1995,22 +2010,22 @@
         <f ca="1"/>
         <v>42920</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
     </row>
     <row r="56" spans="1:8" ht="63.75" customHeight="1">
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
     </row>
     <row r="57" spans="1:8" ht="54" customHeight="1">
       <c r="A57" s="2"/>
@@ -2263,22 +2278,22 @@
         <f ca="1"/>
         <v>42948</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
     </row>
     <row r="70" spans="1:8" ht="63.75" customHeight="1">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
     </row>
     <row r="71" spans="1:8" ht="54" customHeight="1">
       <c r="A71" s="2"/>
@@ -2531,22 +2546,22 @@
         <f ca="1"/>
         <v>42983</v>
       </c>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
     </row>
     <row r="84" spans="1:8" ht="63.75" customHeight="1">
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
     </row>
     <row r="85" spans="1:8" ht="54" customHeight="1">
       <c r="A85" s="2"/>
@@ -2799,22 +2814,22 @@
         <f ca="1"/>
         <v>43011</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
-      <c r="H97" s="15"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
     </row>
     <row r="98" spans="1:8" ht="63.75" customHeight="1">
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
     </row>
     <row r="99" spans="1:8" ht="54" customHeight="1">
       <c r="A99" s="2"/>
@@ -3067,22 +3082,22 @@
         <f ca="1"/>
         <v>43039</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D111" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
-      <c r="H111" s="15"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="23"/>
+      <c r="H111" s="23"/>
     </row>
     <row r="112" spans="1:8" ht="63.75" customHeight="1">
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
     </row>
     <row r="113" spans="1:8" ht="54" customHeight="1">
       <c r="A113" s="2"/>
@@ -3335,22 +3350,22 @@
         <f ca="1"/>
         <v>43074</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="23"/>
     </row>
     <row r="126" spans="1:8" ht="63.75" customHeight="1">
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="25"/>
     </row>
     <row r="127" spans="1:8" ht="54" customHeight="1">
       <c r="A127" s="2"/>
@@ -3603,22 +3618,22 @@
         <f ca="1"/>
         <v>43102</v>
       </c>
-      <c r="D139" s="14" t="s">
+      <c r="D139" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E139" s="15"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23"/>
     </row>
     <row r="140" spans="2:8" ht="63.75" customHeight="1">
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="25"/>
     </row>
     <row r="141" spans="2:8" ht="54" customHeight="1">
       <c r="B141" s="1">
@@ -3869,22 +3884,22 @@
         <f ca="1"/>
         <v>43137</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="D153" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E153" s="15"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
-      <c r="H153" s="15"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="23"/>
+      <c r="G153" s="23"/>
+      <c r="H153" s="23"/>
     </row>
     <row r="154" spans="2:8" ht="63.75" customHeight="1">
       <c r="B154" s="10"/>
       <c r="C154" s="10"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="13"/>
-      <c r="H154" s="13"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="25"/>
+      <c r="F154" s="25"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
     </row>
     <row r="155" spans="2:8" ht="54" customHeight="1">
       <c r="B155" s="1">
@@ -4135,25 +4150,37 @@
         <f ca="1"/>
         <v>43165</v>
       </c>
-      <c r="D167" s="14" t="s">
+      <c r="D167" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
-      <c r="H167" s="15"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="23"/>
+      <c r="G167" s="23"/>
+      <c r="H167" s="23"/>
     </row>
     <row r="168" spans="2:8" ht="63.75" customHeight="1">
       <c r="B168" s="10"/>
       <c r="C168" s="10"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="13"/>
-      <c r="H168" s="13"/>
+      <c r="D168" s="25"/>
+      <c r="E168" s="25"/>
+      <c r="F168" s="25"/>
+      <c r="G168" s="25"/>
+      <c r="H168" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D168:H168"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D140:H140"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D167:H167"/>
     <mergeCell ref="D83:H83"/>
     <mergeCell ref="D153:H153"/>
     <mergeCell ref="D13:H13"/>
@@ -4166,18 +4193,6 @@
     <mergeCell ref="D27:H27"/>
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D168:H168"/>
-    <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D140:H140"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D111:H111"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D98:H98"/>
-    <mergeCell ref="D112:H112"/>
-    <mergeCell ref="D154:H154"/>
-    <mergeCell ref="D167:H167"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:H3 B5:H5 B7:H7 B9:H9 B11:H11 B13:C13">
